--- a/natmiOut/OldD4/LR-pairs_lrc2p/Trf-Tfrc.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Trf-Tfrc.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.267569738954382</v>
+        <v>0.4796840000000001</v>
       </c>
       <c r="H2">
-        <v>0.267569738954382</v>
+        <v>1.439052</v>
       </c>
       <c r="I2">
-        <v>0.002415972408260443</v>
+        <v>0.00309815167247233</v>
       </c>
       <c r="J2">
-        <v>0.002415972408260443</v>
+        <v>0.003108049284200215</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.10390186107713</v>
+        <v>8.257122666666667</v>
       </c>
       <c r="N2">
-        <v>7.10390186107713</v>
+        <v>24.771368</v>
       </c>
       <c r="O2">
-        <v>0.1118414160321942</v>
+        <v>0.1138955057524549</v>
       </c>
       <c r="P2">
-        <v>0.1118414160321942</v>
+        <v>0.1259390917552632</v>
       </c>
       <c r="Q2">
-        <v>1.900789166525956</v>
+        <v>3.960809629237334</v>
       </c>
       <c r="R2">
-        <v>1.900789166525956</v>
+        <v>35.64728666313601</v>
       </c>
       <c r="S2">
-        <v>0.0002702057752345583</v>
+        <v>0.00035286555163405</v>
       </c>
       <c r="T2">
-        <v>0.0002702057752345583</v>
+        <v>0.0003914249039827709</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.267569738954382</v>
+        <v>0.4796840000000001</v>
       </c>
       <c r="H3">
-        <v>0.267569738954382</v>
+        <v>1.439052</v>
       </c>
       <c r="I3">
-        <v>0.002415972408260443</v>
+        <v>0.00309815167247233</v>
       </c>
       <c r="J3">
-        <v>0.002415972408260443</v>
+        <v>0.003108049284200215</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.08715968326115</v>
+        <v>7.033196</v>
       </c>
       <c r="N3">
-        <v>6.08715968326115</v>
+        <v>21.099588</v>
       </c>
       <c r="O3">
-        <v>0.09583417281144473</v>
+        <v>0.09701314220629349</v>
       </c>
       <c r="P3">
-        <v>0.09583417281144473</v>
+        <v>0.1072715462920841</v>
       </c>
       <c r="Q3">
-        <v>1.628739727423824</v>
+        <v>3.373711590064</v>
       </c>
       <c r="R3">
-        <v>1.628739727423824</v>
+        <v>30.363404310576</v>
       </c>
       <c r="S3">
-        <v>0.0002315327172809136</v>
+        <v>0.0003005614287782242</v>
       </c>
       <c r="T3">
-        <v>0.0002315327172809136</v>
+        <v>0.0003334052526681621</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.267569738954382</v>
+        <v>0.4796840000000001</v>
       </c>
       <c r="H4">
-        <v>0.267569738954382</v>
+        <v>1.439052</v>
       </c>
       <c r="I4">
-        <v>0.002415972408260443</v>
+        <v>0.00309815167247233</v>
       </c>
       <c r="J4">
-        <v>0.002415972408260443</v>
+        <v>0.003108049284200215</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.5072493050946</v>
+        <v>18.55885866666667</v>
       </c>
       <c r="N4">
-        <v>18.5072493050946</v>
+        <v>55.676576</v>
       </c>
       <c r="O4">
-        <v>0.2913718417879123</v>
+        <v>0.2559936044745285</v>
       </c>
       <c r="P4">
-        <v>0.2913718417879123</v>
+        <v>0.2830629868113413</v>
       </c>
       <c r="Q4">
-        <v>4.95197986532783</v>
+        <v>8.902387560661333</v>
       </c>
       <c r="R4">
-        <v>4.95197986532783</v>
+        <v>80.12148804595201</v>
       </c>
       <c r="S4">
-        <v>0.0007039463303036233</v>
+        <v>0.0007931070138449804</v>
       </c>
       <c r="T4">
-        <v>0.0007039463303036233</v>
+        <v>0.0008797737135425644</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.267569738954382</v>
+        <v>0.4796840000000001</v>
       </c>
       <c r="H5">
-        <v>0.267569738954382</v>
+        <v>1.439052</v>
       </c>
       <c r="I5">
-        <v>0.002415972408260443</v>
+        <v>0.00309815167247233</v>
       </c>
       <c r="J5">
-        <v>0.002415972408260443</v>
+        <v>0.003108049284200215</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.6906155394757</v>
+        <v>17.849357</v>
       </c>
       <c r="N5">
-        <v>17.6906155394757</v>
+        <v>53.548071</v>
       </c>
       <c r="O5">
-        <v>0.2785150373848357</v>
+        <v>0.2462070172552991</v>
       </c>
       <c r="P5">
-        <v>0.2785150373848357</v>
+        <v>0.2722415422106017</v>
       </c>
       <c r="Q5">
-        <v>4.733473381839847</v>
+        <v>8.562050963188002</v>
       </c>
       <c r="R5">
-        <v>4.733473381839847</v>
+        <v>77.05845866869201</v>
       </c>
       <c r="S5">
-        <v>0.0006728846456073887</v>
+        <v>0.0007627866822839286</v>
       </c>
       <c r="T5">
-        <v>0.0006728846456073887</v>
+        <v>0.0008461401303972231</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.267569738954382</v>
+        <v>0.4796840000000001</v>
       </c>
       <c r="H6">
-        <v>0.267569738954382</v>
+        <v>1.439052</v>
       </c>
       <c r="I6">
-        <v>0.002415972408260443</v>
+        <v>0.00309815167247233</v>
       </c>
       <c r="J6">
-        <v>0.002415972408260443</v>
+        <v>0.003108049284200215</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.128705210393</v>
+        <v>20.7988185</v>
       </c>
       <c r="N6">
-        <v>14.128705210393</v>
+        <v>41.597637</v>
       </c>
       <c r="O6">
-        <v>0.2224375319836131</v>
+        <v>0.2868907303114243</v>
       </c>
       <c r="P6">
-        <v>0.2224375319836131</v>
+        <v>0.2114848329307098</v>
       </c>
       <c r="Q6">
-        <v>3.780413964908272</v>
+        <v>9.976860453354002</v>
       </c>
       <c r="R6">
-        <v>3.780413964908272</v>
+        <v>59.86116272012401</v>
       </c>
       <c r="S6">
-        <v>0.0005374029398339591</v>
+        <v>0.0008888309959311472</v>
       </c>
       <c r="T6">
-        <v>0.0005374029398339591</v>
+        <v>0.0006573052836094946</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>21.6371367551463</v>
+        <v>22.35043633333333</v>
       </c>
       <c r="H7">
-        <v>21.6371367551463</v>
+        <v>67.051309</v>
       </c>
       <c r="I7">
-        <v>0.1953686003449877</v>
+        <v>0.1443555376176879</v>
       </c>
       <c r="J7">
-        <v>0.1953686003449877</v>
+        <v>0.1448167077646516</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.10390186107713</v>
+        <v>8.257122666666667</v>
       </c>
       <c r="N7">
-        <v>7.10390186107713</v>
+        <v>24.771368</v>
       </c>
       <c r="O7">
-        <v>0.1118414160321942</v>
+        <v>0.1138955057524549</v>
       </c>
       <c r="P7">
-        <v>0.1118414160321942</v>
+        <v>0.1259390917552632</v>
       </c>
       <c r="Q7">
-        <v>153.7080960632642</v>
+        <v>184.5502944578569</v>
       </c>
       <c r="R7">
-        <v>153.7080960632642</v>
+        <v>1660.952650120712</v>
       </c>
       <c r="S7">
-        <v>0.02185030091081125</v>
+        <v>0.01644144696513409</v>
       </c>
       <c r="T7">
-        <v>0.02185030091081125</v>
+        <v>0.01823808464686759</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>21.6371367551463</v>
+        <v>22.35043633333333</v>
       </c>
       <c r="H8">
-        <v>21.6371367551463</v>
+        <v>67.051309</v>
       </c>
       <c r="I8">
-        <v>0.1953686003449877</v>
+        <v>0.1443555376176879</v>
       </c>
       <c r="J8">
-        <v>0.1953686003449877</v>
+        <v>0.1448167077646516</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.08715968326115</v>
+        <v>7.033196</v>
       </c>
       <c r="N8">
-        <v>6.08715968326115</v>
+        <v>21.099588</v>
       </c>
       <c r="O8">
-        <v>0.09583417281144473</v>
+        <v>0.09701314220629349</v>
       </c>
       <c r="P8">
-        <v>0.09583417281144473</v>
+        <v>0.1072715462920841</v>
       </c>
       <c r="Q8">
-        <v>131.7087065171345</v>
+        <v>157.1949994178547</v>
       </c>
       <c r="R8">
-        <v>131.7087065171345</v>
+        <v>1414.754994760692</v>
       </c>
       <c r="S8">
-        <v>0.01872298820739163</v>
+        <v>0.0140043842991707</v>
       </c>
       <c r="T8">
-        <v>0.01872298820739163</v>
+        <v>0.01553471217084303</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>21.6371367551463</v>
+        <v>22.35043633333333</v>
       </c>
       <c r="H9">
-        <v>21.6371367551463</v>
+        <v>67.051309</v>
       </c>
       <c r="I9">
-        <v>0.1953686003449877</v>
+        <v>0.1443555376176879</v>
       </c>
       <c r="J9">
-        <v>0.1953686003449877</v>
+        <v>0.1448167077646516</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>18.5072493050946</v>
+        <v>18.55885866666667</v>
       </c>
       <c r="N9">
-        <v>18.5072493050946</v>
+        <v>55.676576</v>
       </c>
       <c r="O9">
-        <v>0.2913718417879123</v>
+        <v>0.2559936044745285</v>
       </c>
       <c r="P9">
-        <v>0.2913718417879123</v>
+        <v>0.2830629868113413</v>
       </c>
       <c r="Q9">
-        <v>400.4438841759182</v>
+        <v>414.7985890486649</v>
       </c>
       <c r="R9">
-        <v>400.4438841759182</v>
+        <v>3733.187301437984</v>
       </c>
       <c r="S9">
-        <v>0.05692490891004564</v>
+        <v>0.0369540944006103</v>
       </c>
       <c r="T9">
-        <v>0.05692490891004564</v>
+        <v>0.04099224984004744</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>21.6371367551463</v>
+        <v>22.35043633333333</v>
       </c>
       <c r="H10">
-        <v>21.6371367551463</v>
+        <v>67.051309</v>
       </c>
       <c r="I10">
-        <v>0.1953686003449877</v>
+        <v>0.1443555376176879</v>
       </c>
       <c r="J10">
-        <v>0.1953686003449877</v>
+        <v>0.1448167077646516</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.6906155394757</v>
+        <v>17.849357</v>
       </c>
       <c r="N10">
-        <v>17.6906155394757</v>
+        <v>53.548071</v>
       </c>
       <c r="O10">
-        <v>0.2785150373848357</v>
+        <v>0.2462070172552991</v>
       </c>
       <c r="P10">
-        <v>0.2785150373848357</v>
+        <v>0.2722415422106017</v>
       </c>
       <c r="Q10">
-        <v>382.774267710352</v>
+        <v>398.9409172194377</v>
       </c>
       <c r="R10">
-        <v>382.774267710352</v>
+        <v>3590.468254974939</v>
       </c>
       <c r="S10">
-        <v>0.05441309302890728</v>
+        <v>0.03554134634113605</v>
       </c>
       <c r="T10">
-        <v>0.05441309302890728</v>
+        <v>0.03942512385971076</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>21.6371367551463</v>
+        <v>22.35043633333333</v>
       </c>
       <c r="H11">
-        <v>21.6371367551463</v>
+        <v>67.051309</v>
       </c>
       <c r="I11">
-        <v>0.1953686003449877</v>
+        <v>0.1443555376176879</v>
       </c>
       <c r="J11">
-        <v>0.1953686003449877</v>
+        <v>0.1448167077646516</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>14.128705210393</v>
+        <v>20.7988185</v>
       </c>
       <c r="N11">
-        <v>14.128705210393</v>
+        <v>41.597637</v>
       </c>
       <c r="O11">
-        <v>0.2224375319836131</v>
+        <v>0.2868907303114243</v>
       </c>
       <c r="P11">
-        <v>0.2224375319836131</v>
+        <v>0.2114848329307098</v>
       </c>
       <c r="Q11">
-        <v>305.7047268104214</v>
+        <v>464.8626686928055</v>
       </c>
       <c r="R11">
-        <v>305.7047268104214</v>
+        <v>2789.176012156833</v>
       </c>
       <c r="S11">
-        <v>0.04345730928783194</v>
+        <v>0.04141426561163675</v>
       </c>
       <c r="T11">
-        <v>0.04345730928783194</v>
+        <v>0.03062653724718276</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>41.7067195279172</v>
+        <v>63.46539633333334</v>
       </c>
       <c r="H12">
-        <v>41.7067195279172</v>
+        <v>190.396189</v>
       </c>
       <c r="I12">
-        <v>0.3765832564335085</v>
+        <v>0.409906154456342</v>
       </c>
       <c r="J12">
-        <v>0.3765832564335085</v>
+        <v>0.4112156745801394</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.10390186107713</v>
+        <v>8.257122666666667</v>
       </c>
       <c r="N12">
-        <v>7.10390186107713</v>
+        <v>24.771368</v>
       </c>
       <c r="O12">
-        <v>0.1118414160321942</v>
+        <v>0.1138955057524549</v>
       </c>
       <c r="P12">
-        <v>0.1118414160321942</v>
+        <v>0.1259390917552632</v>
       </c>
       <c r="Q12">
-        <v>296.2804424737929</v>
+        <v>524.0415626129503</v>
       </c>
       <c r="R12">
-        <v>296.2804424737929</v>
+        <v>4716.374063516553</v>
       </c>
       <c r="S12">
-        <v>0.04211760465353848</v>
+        <v>0.04668646877284897</v>
       </c>
       <c r="T12">
-        <v>0.04211760465353848</v>
+        <v>0.05178812857215063</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>41.7067195279172</v>
+        <v>63.46539633333334</v>
       </c>
       <c r="H13">
-        <v>41.7067195279172</v>
+        <v>190.396189</v>
       </c>
       <c r="I13">
-        <v>0.3765832564335085</v>
+        <v>0.409906154456342</v>
       </c>
       <c r="J13">
-        <v>0.3765832564335085</v>
+        <v>0.4112156745801394</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.08715968326115</v>
+        <v>7.033196</v>
       </c>
       <c r="N13">
-        <v>6.08715968326115</v>
+        <v>21.099588</v>
       </c>
       <c r="O13">
-        <v>0.09583417281144473</v>
+        <v>0.09701314220629349</v>
       </c>
       <c r="P13">
-        <v>0.09583417281144473</v>
+        <v>0.1072715462920841</v>
       </c>
       <c r="Q13">
-        <v>253.8754616314181</v>
+        <v>446.3645716300147</v>
       </c>
       <c r="R13">
-        <v>253.8754616314181</v>
+        <v>4017.281144670133</v>
       </c>
       <c r="S13">
-        <v>0.03608954487494546</v>
+        <v>0.03976628405350801</v>
       </c>
       <c r="T13">
-        <v>0.03608954487494546</v>
+        <v>0.044111741271754</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>41.7067195279172</v>
+        <v>63.46539633333334</v>
       </c>
       <c r="H14">
-        <v>41.7067195279172</v>
+        <v>190.396189</v>
       </c>
       <c r="I14">
-        <v>0.3765832564335085</v>
+        <v>0.409906154456342</v>
       </c>
       <c r="J14">
-        <v>0.3765832564335085</v>
+        <v>0.4112156745801394</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>18.5072493050946</v>
+        <v>18.55885866666667</v>
       </c>
       <c r="N14">
-        <v>18.5072493050946</v>
+        <v>55.676576</v>
       </c>
       <c r="O14">
-        <v>0.2913718417879123</v>
+        <v>0.2559936044745285</v>
       </c>
       <c r="P14">
-        <v>0.2913718417879123</v>
+        <v>0.2830629868113413</v>
       </c>
       <c r="Q14">
-        <v>771.876656000821</v>
+        <v>1177.845320774318</v>
       </c>
       <c r="R14">
-        <v>771.876656000821</v>
+        <v>10600.60788696886</v>
       </c>
       <c r="S14">
-        <v>0.109725757013521</v>
+        <v>0.1049333539755718</v>
       </c>
       <c r="T14">
-        <v>0.109725757013521</v>
+        <v>0.1163999370702948</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>41.7067195279172</v>
+        <v>63.46539633333334</v>
       </c>
       <c r="H15">
-        <v>41.7067195279172</v>
+        <v>190.396189</v>
       </c>
       <c r="I15">
-        <v>0.3765832564335085</v>
+        <v>0.409906154456342</v>
       </c>
       <c r="J15">
-        <v>0.3765832564335085</v>
+        <v>0.4112156745801394</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>17.6906155394757</v>
+        <v>17.849357</v>
       </c>
       <c r="N15">
-        <v>17.6906155394757</v>
+        <v>53.548071</v>
       </c>
       <c r="O15">
-        <v>0.2785150373848357</v>
+        <v>0.2462070172552991</v>
       </c>
       <c r="P15">
-        <v>0.2785150373848357</v>
+        <v>0.2722415422106017</v>
       </c>
       <c r="Q15">
-        <v>737.8175405811267</v>
+        <v>1132.816516300158</v>
       </c>
       <c r="R15">
-        <v>737.8175405811267</v>
+        <v>10195.34864670142</v>
       </c>
       <c r="S15">
-        <v>0.1048840997440818</v>
+        <v>0.1009217716432859</v>
       </c>
       <c r="T15">
-        <v>0.1048840997440818</v>
+        <v>0.1119499894288701</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>41.7067195279172</v>
+        <v>63.46539633333334</v>
       </c>
       <c r="H16">
-        <v>41.7067195279172</v>
+        <v>190.396189</v>
       </c>
       <c r="I16">
-        <v>0.3765832564335085</v>
+        <v>0.409906154456342</v>
       </c>
       <c r="J16">
-        <v>0.3765832564335085</v>
+        <v>0.4112156745801394</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>14.128705210393</v>
+        <v>20.7988185</v>
       </c>
       <c r="N16">
-        <v>14.128705210393</v>
+        <v>41.597637</v>
       </c>
       <c r="O16">
-        <v>0.2224375319836131</v>
+        <v>0.2868907303114243</v>
       </c>
       <c r="P16">
-        <v>0.2224375319836131</v>
+        <v>0.2114848329307098</v>
       </c>
       <c r="Q16">
-        <v>589.2619455024833</v>
+        <v>1320.005259367565</v>
       </c>
       <c r="R16">
-        <v>589.2619455024833</v>
+        <v>7920.031556205394</v>
       </c>
       <c r="S16">
-        <v>0.08376625014742173</v>
+        <v>0.1175982760111274</v>
       </c>
       <c r="T16">
-        <v>0.08376625014742173</v>
+        <v>0.0869658782370699</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>45.9552617930236</v>
+        <v>67.05440800000001</v>
       </c>
       <c r="H17">
-        <v>45.9552617930236</v>
+        <v>201.163224</v>
       </c>
       <c r="I17">
-        <v>0.4149446979325988</v>
+        <v>0.4330866284717481</v>
       </c>
       <c r="J17">
-        <v>0.4149446979325988</v>
+        <v>0.434470202856191</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.10390186107713</v>
+        <v>8.257122666666667</v>
       </c>
       <c r="N17">
-        <v>7.10390186107713</v>
+        <v>24.771368</v>
       </c>
       <c r="O17">
-        <v>0.1118414160321942</v>
+        <v>0.1138955057524549</v>
       </c>
       <c r="P17">
-        <v>0.1118414160321942</v>
+        <v>0.1259390917552632</v>
       </c>
       <c r="Q17">
-        <v>326.4616697777471</v>
+        <v>553.6764721967148</v>
       </c>
       <c r="R17">
-        <v>326.4616697777471</v>
+        <v>4983.088249770432</v>
       </c>
       <c r="S17">
-        <v>0.04640800259183292</v>
+        <v>0.04932662058441528</v>
       </c>
       <c r="T17">
-        <v>0.04640800259183292</v>
+        <v>0.05471678274243365</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>45.9552617930236</v>
+        <v>67.05440800000001</v>
       </c>
       <c r="H18">
-        <v>45.9552617930236</v>
+        <v>201.163224</v>
       </c>
       <c r="I18">
-        <v>0.4149446979325988</v>
+        <v>0.4330866284717481</v>
       </c>
       <c r="J18">
-        <v>0.4149446979325988</v>
+        <v>0.434470202856191</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>6.08715968326115</v>
+        <v>7.033196</v>
       </c>
       <c r="N18">
-        <v>6.08715968326115</v>
+        <v>21.099588</v>
       </c>
       <c r="O18">
-        <v>0.09583417281144473</v>
+        <v>0.09701314220629349</v>
       </c>
       <c r="P18">
-        <v>0.09583417281144473</v>
+        <v>0.1072715462920841</v>
       </c>
       <c r="Q18">
-        <v>279.7370168202048</v>
+        <v>471.6067941279681</v>
       </c>
       <c r="R18">
-        <v>279.7370168202048</v>
+        <v>4244.461147151713</v>
       </c>
       <c r="S18">
-        <v>0.03976588188886541</v>
+        <v>0.04201509467557389</v>
       </c>
       <c r="T18">
-        <v>0.03976588188886541</v>
+        <v>0.04660629047821905</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>45.9552617930236</v>
+        <v>67.05440800000001</v>
       </c>
       <c r="H19">
-        <v>45.9552617930236</v>
+        <v>201.163224</v>
       </c>
       <c r="I19">
-        <v>0.4149446979325988</v>
+        <v>0.4330866284717481</v>
       </c>
       <c r="J19">
-        <v>0.4149446979325988</v>
+        <v>0.434470202856191</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>18.5072493050946</v>
+        <v>18.55885866666667</v>
       </c>
       <c r="N19">
-        <v>18.5072493050946</v>
+        <v>55.676576</v>
       </c>
       <c r="O19">
-        <v>0.2913718417879123</v>
+        <v>0.2559936044745285</v>
       </c>
       <c r="P19">
-        <v>0.2913718417879123</v>
+        <v>0.2830629868113413</v>
       </c>
       <c r="Q19">
-        <v>850.5054868843765</v>
+        <v>1244.453281049003</v>
       </c>
       <c r="R19">
-        <v>850.5054868843765</v>
+        <v>11200.07952944102</v>
       </c>
       <c r="S19">
-        <v>0.1209032008767502</v>
+        <v>0.1108674070722037</v>
       </c>
       <c r="T19">
-        <v>0.1209032008767502</v>
+        <v>0.1229824333010028</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>45.9552617930236</v>
+        <v>67.05440800000001</v>
       </c>
       <c r="H20">
-        <v>45.9552617930236</v>
+        <v>201.163224</v>
       </c>
       <c r="I20">
-        <v>0.4149446979325988</v>
+        <v>0.4330866284717481</v>
       </c>
       <c r="J20">
-        <v>0.4149446979325988</v>
+        <v>0.434470202856191</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>17.6906155394757</v>
+        <v>17.849357</v>
       </c>
       <c r="N20">
-        <v>17.6906155394757</v>
+        <v>53.548071</v>
       </c>
       <c r="O20">
-        <v>0.2785150373848357</v>
+        <v>0.2462070172552991</v>
       </c>
       <c r="P20">
-        <v>0.2785150373848357</v>
+        <v>0.2722415422106017</v>
       </c>
       <c r="Q20">
-        <v>812.9768683963373</v>
+        <v>1196.878066815656</v>
       </c>
       <c r="R20">
-        <v>812.9768683963373</v>
+        <v>10771.90260134091</v>
       </c>
       <c r="S20">
-        <v>0.1155683380573371</v>
+        <v>0.106628967009183</v>
       </c>
       <c r="T20">
-        <v>0.1155683380573371</v>
+        <v>0.1182808380701224</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>45.9552617930236</v>
+        <v>67.05440800000001</v>
       </c>
       <c r="H21">
-        <v>45.9552617930236</v>
+        <v>201.163224</v>
       </c>
       <c r="I21">
-        <v>0.4149446979325988</v>
+        <v>0.4330866284717481</v>
       </c>
       <c r="J21">
-        <v>0.4149446979325988</v>
+        <v>0.434470202856191</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>14.128705210393</v>
+        <v>20.7988185</v>
       </c>
       <c r="N21">
-        <v>14.128705210393</v>
+        <v>41.597637</v>
       </c>
       <c r="O21">
-        <v>0.2224375319836131</v>
+        <v>0.2868907303114243</v>
       </c>
       <c r="P21">
-        <v>0.2224375319836131</v>
+        <v>0.2114848329307098</v>
       </c>
       <c r="Q21">
-        <v>649.288346740067</v>
+        <v>1394.652461616948</v>
       </c>
       <c r="R21">
-        <v>649.288346740067</v>
+        <v>8367.914769701689</v>
       </c>
       <c r="S21">
-        <v>0.09229927451781314</v>
+        <v>0.1242485391303723</v>
       </c>
       <c r="T21">
-        <v>0.09229927451781314</v>
+        <v>0.09188385826441314</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.18364113719953</v>
+        <v>1.479164</v>
       </c>
       <c r="H22">
-        <v>1.18364113719953</v>
+        <v>2.958328</v>
       </c>
       <c r="I22">
-        <v>0.01068747288064447</v>
+        <v>0.009553527781749779</v>
       </c>
       <c r="J22">
-        <v>0.01068747288064447</v>
+        <v>0.006389365514817707</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>7.10390186107713</v>
+        <v>8.257122666666667</v>
       </c>
       <c r="N22">
-        <v>7.10390186107713</v>
+        <v>24.771368</v>
       </c>
       <c r="O22">
-        <v>0.1118414160321942</v>
+        <v>0.1138955057524549</v>
       </c>
       <c r="P22">
-        <v>0.1118414160321942</v>
+        <v>0.1259390917552632</v>
       </c>
       <c r="Q22">
-        <v>8.408470477399192</v>
+        <v>12.21363859211733</v>
       </c>
       <c r="R22">
-        <v>8.408470477399192</v>
+        <v>73.28183155270401</v>
       </c>
       <c r="S22">
-        <v>0.001195302100776951</v>
+        <v>0.00108810387842252</v>
       </c>
       <c r="T22">
-        <v>0.001195302100776951</v>
+        <v>0.0008046708898285416</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.18364113719953</v>
+        <v>1.479164</v>
       </c>
       <c r="H23">
-        <v>1.18364113719953</v>
+        <v>2.958328</v>
       </c>
       <c r="I23">
-        <v>0.01068747288064447</v>
+        <v>0.009553527781749779</v>
       </c>
       <c r="J23">
-        <v>0.01068747288064447</v>
+        <v>0.006389365514817707</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>6.08715968326115</v>
+        <v>7.033196</v>
       </c>
       <c r="N23">
-        <v>6.08715968326115</v>
+        <v>21.099588</v>
       </c>
       <c r="O23">
-        <v>0.09583417281144473</v>
+        <v>0.09701314220629349</v>
       </c>
       <c r="P23">
-        <v>0.09583417281144473</v>
+        <v>0.1072715462920841</v>
       </c>
       <c r="Q23">
-        <v>7.205012609810358</v>
+        <v>10.403250328144</v>
       </c>
       <c r="R23">
-        <v>7.205012609810358</v>
+        <v>62.419501968864</v>
       </c>
       <c r="S23">
-        <v>0.001024225122961311</v>
+        <v>0.0009268177492626669</v>
       </c>
       <c r="T23">
-        <v>0.001024225122961311</v>
+        <v>0.0006853971185998132</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.18364113719953</v>
+        <v>1.479164</v>
       </c>
       <c r="H24">
-        <v>1.18364113719953</v>
+        <v>2.958328</v>
       </c>
       <c r="I24">
-        <v>0.01068747288064447</v>
+        <v>0.009553527781749779</v>
       </c>
       <c r="J24">
-        <v>0.01068747288064447</v>
+        <v>0.006389365514817707</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>18.5072493050946</v>
+        <v>18.55885866666667</v>
       </c>
       <c r="N24">
-        <v>18.5072493050946</v>
+        <v>55.676576</v>
       </c>
       <c r="O24">
-        <v>0.2913718417879123</v>
+        <v>0.2559936044745285</v>
       </c>
       <c r="P24">
-        <v>0.2913718417879123</v>
+        <v>0.2830629868113413</v>
       </c>
       <c r="Q24">
-        <v>21.90594161391738</v>
+        <v>27.45159562082133</v>
       </c>
       <c r="R24">
-        <v>21.90594161391738</v>
+        <v>164.709573724928</v>
       </c>
       <c r="S24">
-        <v>0.003114028657291744</v>
+        <v>0.002445642012297672</v>
       </c>
       <c r="T24">
-        <v>0.003114028657291744</v>
+        <v>0.001808592886453684</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.18364113719953</v>
+        <v>1.479164</v>
       </c>
       <c r="H25">
-        <v>1.18364113719953</v>
+        <v>2.958328</v>
       </c>
       <c r="I25">
-        <v>0.01068747288064447</v>
+        <v>0.009553527781749779</v>
       </c>
       <c r="J25">
-        <v>0.01068747288064447</v>
+        <v>0.006389365514817707</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>17.6906155394757</v>
+        <v>17.849357</v>
       </c>
       <c r="N25">
-        <v>17.6906155394757</v>
+        <v>53.548071</v>
       </c>
       <c r="O25">
-        <v>0.2785150373848357</v>
+        <v>0.2462070172552991</v>
       </c>
       <c r="P25">
-        <v>0.2785150373848357</v>
+        <v>0.2722415422106017</v>
       </c>
       <c r="Q25">
-        <v>20.93934029490469</v>
+        <v>26.402126297548</v>
       </c>
       <c r="R25">
-        <v>20.93934029490469</v>
+        <v>158.412757785288</v>
       </c>
       <c r="S25">
-        <v>0.002976621908902112</v>
+        <v>0.002352145579410247</v>
       </c>
       <c r="T25">
-        <v>0.002976621908902112</v>
+        <v>0.001739450721501207</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.18364113719953</v>
+        <v>1.479164</v>
       </c>
       <c r="H26">
-        <v>1.18364113719953</v>
+        <v>2.958328</v>
       </c>
       <c r="I26">
-        <v>0.01068747288064447</v>
+        <v>0.009553527781749779</v>
       </c>
       <c r="J26">
-        <v>0.01068747288064447</v>
+        <v>0.006389365514817707</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>14.128705210393</v>
+        <v>20.7988185</v>
       </c>
       <c r="N26">
-        <v>14.128705210393</v>
+        <v>41.597637</v>
       </c>
       <c r="O26">
-        <v>0.2224375319836131</v>
+        <v>0.2868907303114243</v>
       </c>
       <c r="P26">
-        <v>0.2224375319836131</v>
+        <v>0.2114848329307098</v>
       </c>
       <c r="Q26">
-        <v>16.72331670238649</v>
+        <v>30.764863567734</v>
       </c>
       <c r="R26">
-        <v>16.72331670238649</v>
+        <v>123.059454270936</v>
       </c>
       <c r="S26">
-        <v>0.002377295090712352</v>
+        <v>0.002740818562356675</v>
       </c>
       <c r="T26">
-        <v>0.002377295090712352</v>
+        <v>0.001351253898434461</v>
       </c>
     </row>
   </sheetData>
